--- a/pwbi/Modello Architettonico/namebeam.xlsx
+++ b/pwbi/Modello Architettonico/namebeam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\TESI\website\Web-Thesis\pwbi\Modello Architettonico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C77E469-067E-4A46-AE3D-1DF3608367BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8554578-359B-4B28-B404-9903D4FD68ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4356" yWindow="1140" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="namebeam" sheetId="1" r:id="rId1"/>
@@ -676,9 +676,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1036,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1359,37 +1357,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>